--- a/anova_results_mp_PFOA.xlsx
+++ b/anova_results_mp_PFOA.xlsx
@@ -401,22 +401,22 @@
         <v>7</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0139044169378298</v>
+        <v>27.1180470558125</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0139044169378298</v>
+        <v>27.1180470558125</v>
       </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="n">
-        <v>3.99999998377883</v>
+        <v>3.64914553299284</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0383520544010186</v>
+        <v>0.0284356463273996</v>
       </c>
       <c r="G2" t="n">
-        <v>0.854284255096488</v>
+        <v>0.875016409903936</v>
       </c>
     </row>
     <row r="3">
@@ -424,22 +424,22 @@
         <v>8</v>
       </c>
       <c r="B3" t="n">
-        <v>1.07630961208233</v>
+        <v>719.295439645526</v>
       </c>
       <c r="C3" t="n">
-        <v>0.538154806041167</v>
+        <v>359.647719822763</v>
       </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="n">
-        <v>8.00000001413143</v>
+        <v>7.26496262562701</v>
       </c>
       <c r="F3" t="n">
-        <v>1.48437309451696</v>
+        <v>0.377122118797408</v>
       </c>
       <c r="G3" t="n">
-        <v>0.282964529540051</v>
+        <v>0.698511723517563</v>
       </c>
     </row>
     <row r="4">
@@ -447,22 +447,22 @@
         <v>9</v>
       </c>
       <c r="B4" t="n">
-        <v>0.40143537818611</v>
+        <v>110.979921525621</v>
       </c>
       <c r="C4" t="n">
-        <v>0.200717689093055</v>
+        <v>55.4899607628103</v>
       </c>
       <c r="D4" t="n">
         <v>2</v>
       </c>
       <c r="E4" t="n">
-        <v>8.00000001415377</v>
+        <v>7.26496137303232</v>
       </c>
       <c r="F4" t="n">
-        <v>0.553632400823638</v>
+        <v>0.0581860816055466</v>
       </c>
       <c r="G4" t="n">
-        <v>0.595398986361733</v>
+        <v>0.943909506913094</v>
       </c>
     </row>
   </sheetData>
